--- a/biology/Médecine/Orchiépididymite/Orchiépididymite.xlsx
+++ b/biology/Médecine/Orchiépididymite/Orchiépididymite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orchi%C3%A9pididymite</t>
+          <t>Orchiépididymite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une orchiépididymite est une inflammation d'un testicule (orchite) et d'un épididyme (épididymite)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une orchiépididymite est une inflammation d'un testicule (orchite) et d'un épididyme (épididymite). 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orchi%C3%A9pididymite</t>
+          <t>Orchiépididymite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle entraîne une douleur testiculaire aiguë, pulsatile, unilatérale, et pose le problème du diagnostic différentiel avec une torsion du cordon spermatique qui est une urgence chirurgicale.
 Elle touche plus souvent l'adulte que l'enfant.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orchi%C3%A9pididymite</t>
+          <t>Orchiépididymite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est généralement due à une infection par un germe intestinal (par exemple Escherichia coli), rétrograde, débutant au niveau de l'urètre et remontant par les canaux déférents jusqu'à l'épididyme.
 Elle peut être due à une infection sexuellement transmissible, notamment par Chlamydia trachomatis.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orchi%C3%A9pididymite</t>
+          <t>Orchiépididymite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe un syndrome infectieux biologique.
 La numération formule sanguine retrouve une hyperleucocytose à polynucléaire neutrophile. La vitesse de sédimentation et la CRP sont augmentées.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Orchi%C3%A9pididymite</t>
+          <t>Orchiépididymite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le principal diagnostic différentiel est la torsion du pédicule spermatique, qui est une urgence chirurgicale. Le signe de Prehn, qui est dit positif lorsque le soulèvement du testicule soulage la douleur peut permettre d'orienter le diagnostic[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principal diagnostic différentiel est la torsion du pédicule spermatique, qui est une urgence chirurgicale. Le signe de Prehn, qui est dit positif lorsque le soulèvement du testicule soulage la douleur peut permettre d'orienter le diagnostic.
 </t>
         </is>
       </c>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Orchi%C3%A9pididymite</t>
+          <t>Orchiépididymite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Repos au lit
 Port d'un suspensoir ou d'un slip serré afin de limiter la douleur
